--- a/biology/Médecine/Charles_Féré/Charles_Féré.xlsx
+++ b/biology/Médecine/Charles_Féré/Charles_Féré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_F%C3%A9r%C3%A9</t>
+          <t>Charles_Féré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Féré, né à Auffay dans la Seine-Maritime le 13 juin 1852 et mort à Paris (16e) le 22 avril 1907[1], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Féré, né à Auffay dans la Seine-Maritime le 13 juin 1852 et mort à Paris (16e) le 22 avril 1907, est un médecin français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_F%C3%A9r%C3%A9</t>
+          <t>Charles_Féré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Féré était l'unique enfant d'une famille de paysans aisés. Il fit ses études au lycée Corneille de Rouen avant d'entrer à l'école de médecine de cette ville. Il eut alors pour professeur le chirurgien de l'Hôtel-Dieu de Rouen Achille Flaubert (1813-1882), le frère de l'écrivain Gustave Flaubert. Charles Féré devint par la suite l'interne et le secrétaire particulier du neurologue Jean Martin Charcot (1825-1893) à la Salpêtrière en 1881, puis le médecin en chef du laboratoire de Bicêtre à partir de 1887.
 Il est l'auteur de nombreux ouvrages sur la médecine, la psychologie, la sexualité et la criminalité. Il appartenait à de nombreuses sociétés savantes : Société de biologie, Société d'anthropologie, Société médico-psychologique, Société de psychologie physiologique, Society for Psychical Research, Société de médecine de Rouen.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_F%C3%A9r%C3%A9</t>
+          <t>Charles_Féré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Principaux ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sensation et mouvement : études expérimentales de psycho-mécanique, Paris, Félix Alcan, coll. «Bibliothèque de philosophie contemporaine», 1887.
 Le Magnétisme animal, Paris, Alcan, coll. «Bibliothèque scientifique internationale», 1887 (avec Alfred Binet)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles_F%C3%A9r%C3%A9</t>
+          <t>Charles_Féré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Son acte de décès (n° 763) dans les registres de décès du 16e arrondissement de Paris pour l'année 1907.
